--- a/excels/elstat/formated oikogeneiaki katastasi.xlsx
+++ b/excels/elstat/formated oikogeneiaki katastasi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="8780" windowWidth="42380" windowHeight="16040" tabRatio="500"/>
+    <workbookView xWindow="3660" yWindow="4520" windowWidth="42380" windowHeight="20300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Total</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>Crete, Greece</t>
+  </si>
+  <si>
+    <t>Greece</t>
   </si>
 </sst>
 </file>
@@ -227,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -245,11 +248,712 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="31">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -277,45 +981,99 @@
   </dxfs>
   <tableStyles count="1" defaultPivotStyle="PivotStyleMedium4">
     <tableStyle name="Φύλλο1-style" pivot="0" count="3">
-      <tableStyleElement type="headerRow" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="secondRowStripe" dxfId="0"/>
+      <tableStyleElement type="headerRow" dxfId="30"/>
+      <tableStyleElement type="firstRowStripe" dxfId="29"/>
+      <tableStyleElement type="secondRowStripe" dxfId="28"/>
     </tableStyle>
   </tableStyles>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_1" displayName="Table_1" ref="A1:AB14" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_1" displayName="Table_1" ref="A1:AB15" headerRowCount="0" totalsRowCount="1">
   <tableColumns count="28">
-    <tableColumn id="1" name="Column1"/>
-    <tableColumn id="2" name="Column2"/>
-    <tableColumn id="3" name="Column3"/>
-    <tableColumn id="4" name="Column4"/>
-    <tableColumn id="5" name="Column5"/>
-    <tableColumn id="6" name="Column6"/>
-    <tableColumn id="7" name="Column7"/>
-    <tableColumn id="8" name="Column8"/>
-    <tableColumn id="9" name="Column9"/>
-    <tableColumn id="10" name="Column10"/>
-    <tableColumn id="11" name="Column11"/>
-    <tableColumn id="12" name="Column12"/>
-    <tableColumn id="13" name="Column13"/>
-    <tableColumn id="14" name="Column14"/>
-    <tableColumn id="15" name="Column15"/>
-    <tableColumn id="16" name="Column16"/>
-    <tableColumn id="17" name="Column17"/>
-    <tableColumn id="18" name="Column18"/>
-    <tableColumn id="19" name="Column19"/>
-    <tableColumn id="20" name="Column20"/>
-    <tableColumn id="21" name="Column21"/>
-    <tableColumn id="22" name="Column22"/>
-    <tableColumn id="23" name="Column23"/>
-    <tableColumn id="24" name="Column24"/>
-    <tableColumn id="25" name="Column25"/>
-    <tableColumn id="26" name="Column26"/>
-    <tableColumn id="27" name="Column27"/>
-    <tableColumn id="28" name="Column28"/>
+    <tableColumn id="1" name="Column1" totalsRowLabel="Greece" totalsRowDxfId="27"/>
+    <tableColumn id="2" name="Column2" totalsRowFunction="custom" totalsRowDxfId="26">
+      <totalsRowFormula>SUM(B2:B14)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="3" name="Column3" totalsRowFunction="custom" totalsRowDxfId="25">
+      <totalsRowFormula>SUM(C2:C14)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="4" name="Column4" totalsRowFunction="custom" totalsRowDxfId="24">
+      <totalsRowFormula>SUM(D2:D14)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="5" name="Column5" totalsRowFunction="custom" totalsRowDxfId="23">
+      <totalsRowFormula>SUM(E2:E14)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="6" name="Column6" totalsRowFunction="custom" totalsRowDxfId="22">
+      <totalsRowFormula>SUM(F2:F14)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="7" name="Column7" totalsRowFunction="custom" totalsRowDxfId="21">
+      <totalsRowFormula>SUM(G2:G14)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="8" name="Column8" totalsRowFunction="custom" totalsRowDxfId="20">
+      <totalsRowFormula>SUM(H2:H14)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="9" name="Column9" totalsRowFunction="custom" totalsRowDxfId="19">
+      <totalsRowFormula>SUM(I2:I14)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="10" name="Column10" totalsRowFunction="custom" totalsRowDxfId="18">
+      <totalsRowFormula>SUM(J2:J14)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="11" name="Column11" totalsRowFunction="custom" totalsRowDxfId="17">
+      <totalsRowFormula>SUM(K2:K14)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="12" name="Column12" totalsRowFunction="custom" totalsRowDxfId="16">
+      <totalsRowFormula>SUM(L2:L14)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="13" name="Column13" totalsRowFunction="custom" totalsRowDxfId="15">
+      <totalsRowFormula>SUM(M2:M14)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="14" name="Column14" totalsRowFunction="custom" totalsRowDxfId="14">
+      <totalsRowFormula>SUM(N2:N14)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="15" name="Column15" totalsRowFunction="custom" totalsRowDxfId="13">
+      <totalsRowFormula>SUM(O2:O14)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="16" name="Column16" totalsRowFunction="custom" totalsRowDxfId="12">
+      <totalsRowFormula>SUM(P2:P14)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="17" name="Column17" totalsRowFunction="custom" totalsRowDxfId="11">
+      <totalsRowFormula>SUM(Q2:Q14)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="18" name="Column18" totalsRowFunction="custom" totalsRowDxfId="10">
+      <totalsRowFormula>SUM(R2:R14)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="19" name="Column19" totalsRowFunction="custom" totalsRowDxfId="9">
+      <totalsRowFormula>SUM(S2:S14)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="20" name="Column20" totalsRowFunction="custom" totalsRowDxfId="8">
+      <totalsRowFormula>SUM(T2:T14)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="21" name="Column21" totalsRowFunction="custom" totalsRowDxfId="7">
+      <totalsRowFormula>SUM(U2:U14)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="22" name="Column22" totalsRowFunction="custom" totalsRowDxfId="6">
+      <totalsRowFormula>SUM(V2:V14)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="23" name="Column23" totalsRowFunction="custom" totalsRowDxfId="5">
+      <totalsRowFormula>SUM(W2:W14)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="24" name="Column24" totalsRowFunction="custom" totalsRowDxfId="4">
+      <totalsRowFormula>SUM(X2:X14)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="25" name="Column25" totalsRowFunction="custom" totalsRowDxfId="3">
+      <totalsRowFormula>SUM(Y2:Y14)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="26" name="Column26" totalsRowFunction="custom" totalsRowDxfId="2">
+      <totalsRowFormula>SUM(Z2:Z14)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="27" name="Column27" totalsRowFunction="custom" totalsRowDxfId="1">
+      <totalsRowFormula>SUM(AA2:AA14)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="28" name="Column28" totalsRowFunction="custom" totalsRowDxfId="0">
+      <totalsRowFormula>SUM(AB2:AB14)</totalsRowFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="Φύλλο1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -651,10 +1409,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB14"/>
+  <dimension ref="A1:AB15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2:AB15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -1859,6 +2617,119 @@
       </c>
       <c r="AB14" s="6">
         <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="15.75" customHeight="1">
+      <c r="A15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="8">
+        <f>SUM(B2:B14)</f>
+        <v>10816286</v>
+      </c>
+      <c r="C15" s="8">
+        <f>SUM(C2:C14)</f>
+        <v>4227476</v>
+      </c>
+      <c r="D15" s="8">
+        <f>SUM(D2:D14)</f>
+        <v>5364763</v>
+      </c>
+      <c r="E15" s="8">
+        <f>SUM(E2:E14)</f>
+        <v>820449</v>
+      </c>
+      <c r="F15" s="8">
+        <f>SUM(F2:F14)</f>
+        <v>331686</v>
+      </c>
+      <c r="G15" s="8">
+        <f>SUM(G2:G14)</f>
+        <v>1765</v>
+      </c>
+      <c r="H15" s="8">
+        <f>SUM(H2:H14)</f>
+        <v>69737</v>
+      </c>
+      <c r="I15" s="8">
+        <f>SUM(I2:I14)</f>
+        <v>78</v>
+      </c>
+      <c r="J15" s="8">
+        <f>SUM(J2:J14)</f>
+        <v>332</v>
+      </c>
+      <c r="K15" s="8">
+        <f>SUM(K2:K14)</f>
+        <v>5303223</v>
+      </c>
+      <c r="L15" s="8">
+        <f>SUM(L2:L14)</f>
+        <v>2329207</v>
+      </c>
+      <c r="M15" s="8">
+        <f>SUM(M2:M14)</f>
+        <v>2694941</v>
+      </c>
+      <c r="N15" s="8">
+        <f>SUM(N2:N14)</f>
+        <v>124347</v>
+      </c>
+      <c r="O15" s="8">
+        <f>SUM(O2:O14)</f>
+        <v>125944</v>
+      </c>
+      <c r="P15" s="8">
+        <f>SUM(P2:P14)</f>
+        <v>731</v>
+      </c>
+      <c r="Q15" s="8">
+        <f>SUM(Q2:Q14)</f>
+        <v>27774</v>
+      </c>
+      <c r="R15" s="8">
+        <f>SUM(R2:R14)</f>
+        <v>47</v>
+      </c>
+      <c r="S15" s="8">
+        <f>SUM(S2:S14)</f>
+        <v>232</v>
+      </c>
+      <c r="T15" s="8">
+        <f>SUM(T2:T14)</f>
+        <v>5513063</v>
+      </c>
+      <c r="U15" s="8">
+        <f>SUM(U2:U14)</f>
+        <v>1898269</v>
+      </c>
+      <c r="V15" s="8">
+        <f>SUM(V2:V14)</f>
+        <v>2669822</v>
+      </c>
+      <c r="W15" s="8">
+        <f>SUM(W2:W14)</f>
+        <v>696102</v>
+      </c>
+      <c r="X15" s="8">
+        <f>SUM(X2:X14)</f>
+        <v>205742</v>
+      </c>
+      <c r="Y15" s="8">
+        <f>SUM(Y2:Y14)</f>
+        <v>1034</v>
+      </c>
+      <c r="Z15" s="8">
+        <f>SUM(Z2:Z14)</f>
+        <v>41963</v>
+      </c>
+      <c r="AA15" s="8">
+        <f>SUM(AA2:AA14)</f>
+        <v>31</v>
+      </c>
+      <c r="AB15" s="8">
+        <f>SUM(AB2:AB14)</f>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/excels/elstat/formated oikogeneiaki katastasi.xlsx
+++ b/excels/elstat/formated oikogeneiaki katastasi.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Total</t>
   </si>
@@ -88,9 +88,6 @@
     <t>Men Widower From Civil Partnership</t>
   </si>
   <si>
-    <t>Men Windower From Civil Partnership</t>
-  </si>
-  <si>
     <t>Women Total</t>
   </si>
   <si>
@@ -117,9 +114,6 @@
     <t>Women Widower From Civil Partnership</t>
   </si>
   <si>
-    <t>Women Windower From Civil Partnership</t>
-  </si>
-  <si>
     <t>Eastern Macedonia and Thrace, Greece</t>
   </si>
   <si>
@@ -148,6 +142,15 @@
   </si>
   <si>
     <t>Greece</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Men Separated From Civil Partnership</t>
+  </si>
+  <si>
+    <t>Women Separated From Civil Partnership</t>
   </si>
 </sst>
 </file>
@@ -1411,14 +1414,16 @@
   </sheetPr>
   <dimension ref="A1:AB15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2:AB15"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:28" ht="69" customHeight="1">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1471,39 +1476,39 @@
         <v>20</v>
       </c>
       <c r="S1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="AB1" s="3" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="22">
       <c r="A2" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B2" s="6">
         <v>608182</v>
@@ -1589,7 +1594,7 @@
     </row>
     <row r="3" spans="1:28" ht="22">
       <c r="A3" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B3" s="6">
         <v>1882108</v>
@@ -1847,7 +1852,7 @@
     </row>
     <row r="6" spans="1:28" ht="12">
       <c r="A6" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B6" s="6">
         <v>732762</v>
@@ -1933,7 +1938,7 @@
     </row>
     <row r="7" spans="1:28" ht="22">
       <c r="A7" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B7" s="6">
         <v>547390</v>
@@ -2105,7 +2110,7 @@
     </row>
     <row r="9" spans="1:28" ht="22">
       <c r="A9" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B9" s="6">
         <v>679796</v>
@@ -2191,7 +2196,7 @@
     </row>
     <row r="10" spans="1:28" ht="22">
       <c r="A10" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B10" s="6">
         <v>577903</v>
@@ -2277,7 +2282,7 @@
     </row>
     <row r="11" spans="1:28" ht="22">
       <c r="A11" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B11" s="6">
         <v>3828434</v>
@@ -2363,7 +2368,7 @@
     </row>
     <row r="12" spans="1:28" ht="22">
       <c r="A12" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B12" s="6">
         <v>199231</v>
@@ -2535,7 +2540,7 @@
     </row>
     <row r="14" spans="1:28" ht="12">
       <c r="A14" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B14" s="6">
         <v>623065</v>
@@ -2621,114 +2626,114 @@
     </row>
     <row r="15" spans="1:28" ht="15.75" customHeight="1">
       <c r="A15" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B15" s="8">
-        <f>SUM(B2:B14)</f>
+        <f t="shared" ref="B15:AB15" si="0">SUM(B2:B14)</f>
         <v>10816286</v>
       </c>
       <c r="C15" s="8">
-        <f>SUM(C2:C14)</f>
+        <f t="shared" si="0"/>
         <v>4227476</v>
       </c>
       <c r="D15" s="8">
-        <f>SUM(D2:D14)</f>
+        <f t="shared" si="0"/>
         <v>5364763</v>
       </c>
       <c r="E15" s="8">
-        <f>SUM(E2:E14)</f>
+        <f t="shared" si="0"/>
         <v>820449</v>
       </c>
       <c r="F15" s="8">
-        <f>SUM(F2:F14)</f>
+        <f t="shared" si="0"/>
         <v>331686</v>
       </c>
       <c r="G15" s="8">
-        <f>SUM(G2:G14)</f>
+        <f t="shared" si="0"/>
         <v>1765</v>
       </c>
       <c r="H15" s="8">
-        <f>SUM(H2:H14)</f>
+        <f t="shared" si="0"/>
         <v>69737</v>
       </c>
       <c r="I15" s="8">
-        <f>SUM(I2:I14)</f>
+        <f t="shared" si="0"/>
         <v>78</v>
       </c>
       <c r="J15" s="8">
-        <f>SUM(J2:J14)</f>
+        <f t="shared" si="0"/>
         <v>332</v>
       </c>
       <c r="K15" s="8">
-        <f>SUM(K2:K14)</f>
+        <f t="shared" si="0"/>
         <v>5303223</v>
       </c>
       <c r="L15" s="8">
-        <f>SUM(L2:L14)</f>
+        <f t="shared" si="0"/>
         <v>2329207</v>
       </c>
       <c r="M15" s="8">
-        <f>SUM(M2:M14)</f>
+        <f t="shared" si="0"/>
         <v>2694941</v>
       </c>
       <c r="N15" s="8">
-        <f>SUM(N2:N14)</f>
+        <f t="shared" si="0"/>
         <v>124347</v>
       </c>
       <c r="O15" s="8">
-        <f>SUM(O2:O14)</f>
+        <f t="shared" si="0"/>
         <v>125944</v>
       </c>
       <c r="P15" s="8">
-        <f>SUM(P2:P14)</f>
+        <f t="shared" si="0"/>
         <v>731</v>
       </c>
       <c r="Q15" s="8">
-        <f>SUM(Q2:Q14)</f>
+        <f t="shared" si="0"/>
         <v>27774</v>
       </c>
       <c r="R15" s="8">
-        <f>SUM(R2:R14)</f>
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="S15" s="8">
-        <f>SUM(S2:S14)</f>
+        <f t="shared" si="0"/>
         <v>232</v>
       </c>
       <c r="T15" s="8">
-        <f>SUM(T2:T14)</f>
+        <f t="shared" si="0"/>
         <v>5513063</v>
       </c>
       <c r="U15" s="8">
-        <f>SUM(U2:U14)</f>
+        <f t="shared" si="0"/>
         <v>1898269</v>
       </c>
       <c r="V15" s="8">
-        <f>SUM(V2:V14)</f>
+        <f t="shared" si="0"/>
         <v>2669822</v>
       </c>
       <c r="W15" s="8">
-        <f>SUM(W2:W14)</f>
+        <f t="shared" si="0"/>
         <v>696102</v>
       </c>
       <c r="X15" s="8">
-        <f>SUM(X2:X14)</f>
+        <f t="shared" si="0"/>
         <v>205742</v>
       </c>
       <c r="Y15" s="8">
-        <f>SUM(Y2:Y14)</f>
+        <f t="shared" si="0"/>
         <v>1034</v>
       </c>
       <c r="Z15" s="8">
-        <f>SUM(Z2:Z14)</f>
+        <f t="shared" si="0"/>
         <v>41963</v>
       </c>
       <c r="AA15" s="8">
-        <f>SUM(AA2:AA14)</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="AB15" s="8">
-        <f>SUM(AB2:AB14)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>

--- a/excels/elstat/formated oikogeneiaki katastasi.xlsx
+++ b/excels/elstat/formated oikogeneiaki katastasi.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26215"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giorgosandreou/Documents/Visual Studio/thesis-old/excels/elstat/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="4520" windowWidth="42380" windowHeight="20300" tabRatio="500"/>
+    <workbookView xWindow="20" yWindow="1300" windowWidth="38400" windowHeight="20300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -989,6 +994,11 @@
       <tableStyleElement type="secondRowStripe" dxfId="28"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1414,13 +1424,13 @@
   </sheetPr>
   <dimension ref="A1:AB15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:28" ht="69" customHeight="1">
+    <row r="1" spans="1:28" ht="69" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
@@ -1506,7 +1516,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="22">
+    <row r="2" spans="1:28" ht="24" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>29</v>
       </c>
@@ -1592,7 +1602,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="22">
+    <row r="3" spans="1:28" ht="24" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>30</v>
       </c>
@@ -1678,7 +1688,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="22">
+    <row r="4" spans="1:28" ht="24" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1764,7 +1774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="22">
+    <row r="5" spans="1:28" ht="13" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1850,7 +1860,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="12">
+    <row r="6" spans="1:28" ht="13" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>31</v>
       </c>
@@ -1936,7 +1946,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="22">
+    <row r="7" spans="1:28" ht="24" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>32</v>
       </c>
@@ -2022,7 +2032,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="22">
+    <row r="8" spans="1:28" ht="24" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>3</v>
       </c>
@@ -2108,7 +2118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="22">
+    <row r="9" spans="1:28" ht="24" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>33</v>
       </c>
@@ -2194,7 +2204,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="22">
+    <row r="10" spans="1:28" ht="24" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>34</v>
       </c>
@@ -2280,7 +2290,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="22">
+    <row r="11" spans="1:28" ht="13" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>35</v>
       </c>
@@ -2366,7 +2376,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="22">
+    <row r="12" spans="1:28" ht="24" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>36</v>
       </c>
@@ -2452,7 +2462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="22">
+    <row r="13" spans="1:28" ht="24" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>4</v>
       </c>
@@ -2538,7 +2548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="12">
+    <row r="14" spans="1:28" ht="13" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>37</v>
       </c>
@@ -2624,7 +2634,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="15.75" customHeight="1">
+    <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
         <v>38</v>
       </c>
@@ -2742,10 +2752,5 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>